--- a/Docs/gcp_metrics/log_metrics_and_run_time.xlsx
+++ b/Docs/gcp_metrics/log_metrics_and_run_time.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jepoc\Documents\GitHub\tfm_bigdata_unir\Docs\gcp_metrics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{511BEBA9-57C3-4467-AAE7-A9F4416273CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36E115C7-8342-49F2-9F22-B51E207EC070}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" xr2:uid="{AD0B783D-1B8C-4E20-818B-F3EE477106F9}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="16">
   <si>
     <t>Bronze</t>
   </si>
@@ -77,21 +77,22 @@
     <t>Fecha y hora de final</t>
   </si>
   <si>
-    <t>Total</t>
-  </si>
-  <si>
     <t>Cantidad de registros leídos</t>
   </si>
   <si>
     <t>Cantidad de registros insertados</t>
+  </si>
+  <si>
+    <t>Todas</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="yyyy/mm/dd\ hh:mm"/>
+    <numFmt numFmtId="165" formatCode="mmm\-dd\ hh:mm"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -130,7 +131,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -144,9 +145,6 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -155,11 +153,13 @@
     <xf numFmtId="20" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -496,7 +496,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A39903AB-E0EE-4D3E-8981-19C79CD78BB3}">
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="250" zoomScaleNormal="250" workbookViewId="0"/>
   </sheetViews>
@@ -506,7 +506,7 @@
     <col min="2" max="2" width="25.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="13.7109375" customWidth="1"/>
     <col min="5" max="5" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="17.7109375" style="6" customWidth="1"/>
+    <col min="6" max="7" width="17.7109375" style="5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
@@ -517,10 +517,10 @@
         <v>3</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>14</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>15</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>9</v>
@@ -547,152 +547,222 @@
         <f>89521+213593+137269+4880181+3017439+4624615</f>
         <v>12962618</v>
       </c>
-      <c r="E2" s="7">
-        <f t="shared" ref="E2:E5" si="0">G2-F2</f>
+      <c r="E2" s="6">
+        <f t="shared" ref="E2:E7" si="0">G2-F2</f>
         <v>3.125E-2</v>
       </c>
-      <c r="F2" s="5">
+      <c r="F2" s="10">
         <v>45836.979166666664</v>
       </c>
-      <c r="G2" s="5">
+      <c r="G2" s="10">
         <v>45837.010416666664</v>
       </c>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="2">
-        <f>89521+213593+137269</f>
-        <v>440383</v>
-      </c>
-      <c r="D3" s="2">
-        <v>211571</v>
-      </c>
-      <c r="E3" s="7">
+    <row r="3" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C3" s="9">
+        <f>C2</f>
+        <v>12962618</v>
+      </c>
+      <c r="D3" s="9">
+        <f>D2</f>
+        <v>12962618</v>
+      </c>
+      <c r="E3" s="8">
         <f t="shared" si="0"/>
-        <v>5.5555555518367328E-3</v>
-      </c>
-      <c r="F3" s="5">
-        <v>45837.011805555558</v>
-      </c>
-      <c r="G3" s="5">
-        <v>45837.017361111109</v>
-      </c>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
+        <v>3.125E-2</v>
+      </c>
+      <c r="F3" s="11">
+        <v>45836.979166666664</v>
+      </c>
+      <c r="G3" s="11">
+        <v>45837.010416666664</v>
+      </c>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>1</v>
       </c>
       <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="2">
+        <f>89521+213593+137269</f>
+        <v>440383</v>
+      </c>
+      <c r="D4" s="2">
+        <v>211571</v>
+      </c>
+      <c r="E4" s="6">
+        <f t="shared" si="0"/>
+        <v>5.5555555518367328E-3</v>
+      </c>
+      <c r="F4" s="10">
+        <v>45837.011805555558</v>
+      </c>
+      <c r="G4" s="10">
+        <v>45837.017361111109</v>
+      </c>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C5" s="2">
         <f>4880181+3017439+4624615</f>
         <v>12522235</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D5" s="2">
         <v>12383878</v>
       </c>
-      <c r="E4" s="7">
+      <c r="E5" s="6">
         <f t="shared" si="0"/>
         <v>1.3194444443797693E-2</v>
       </c>
-      <c r="F4" s="5">
+      <c r="F5" s="10">
         <v>45837.013194444444</v>
       </c>
-      <c r="G4" s="5">
+      <c r="G5" s="10">
         <v>45837.026388888888</v>
       </c>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+    </row>
+    <row r="6" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C6" s="9">
+        <f>C4+C5</f>
+        <v>12962618</v>
+      </c>
+      <c r="D6" s="9">
+        <f>D4+D5</f>
+        <v>12595449</v>
+      </c>
+      <c r="E6" s="8">
+        <f t="shared" si="0"/>
+        <v>1.4583333329937886E-2</v>
+      </c>
+      <c r="F6" s="11">
+        <v>45837.011805555558</v>
+      </c>
+      <c r="G6" s="11">
+        <v>45837.026388888888</v>
+      </c>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>2</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B7" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C7" s="2">
         <v>211571</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D7" s="2">
         <f>597815+911016+1190092+336632+897+679371+1021867+211571+211571</f>
         <v>5160832</v>
       </c>
-      <c r="E5" s="7">
+      <c r="E7" s="6">
         <f t="shared" si="0"/>
-        <v>2.0833333328482695E-3</v>
-      </c>
-      <c r="F5" s="5">
+        <v>3.4722222262644209E-3</v>
+      </c>
+      <c r="F7" s="10">
         <v>45837.026388888888</v>
       </c>
-      <c r="G5" s="5">
-        <v>45837.02847222222</v>
-      </c>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="G7" s="10">
+        <v>45837.029861111114</v>
+      </c>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>2</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B8" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C8" s="2">
         <v>12383878</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D8" s="2">
         <f>3+2+12383878</f>
         <v>12383883</v>
       </c>
-      <c r="E6" s="7">
-        <f>G6-F6</f>
-        <v>4.166666665696539E-3</v>
-      </c>
-      <c r="F6" s="5">
-        <v>45837.027777777781</v>
-      </c>
-      <c r="G6" s="5">
+      <c r="E8" s="6">
+        <f>G8-F8</f>
+        <v>4.8611111124046147E-3</v>
+      </c>
+      <c r="F8" s="10">
+        <v>45837.027083333334</v>
+      </c>
+      <c r="G8" s="10">
         <v>45837.031944444447</v>
       </c>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B7" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" s="12">
-        <f>SUM(C2:C6)</f>
-        <v>38520685</v>
-      </c>
-      <c r="D7" s="12">
-        <f>SUM(D2:D6)</f>
-        <v>43102782</v>
-      </c>
-      <c r="E7" s="9">
-        <f>G7-F7</f>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+    </row>
+    <row r="9" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C9" s="9">
+        <f>C7+C8</f>
+        <v>12595449</v>
+      </c>
+      <c r="D9" s="9">
+        <f>D7+D8</f>
+        <v>17544715</v>
+      </c>
+      <c r="E9" s="8">
+        <f t="shared" ref="E9" si="1">G9-F9</f>
+        <v>6.9444444452528842E-3</v>
+      </c>
+      <c r="F9" s="11">
+        <v>45837.026388888888</v>
+      </c>
+      <c r="G9" s="11">
+        <v>45837.033333333333</v>
+      </c>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="9">
+        <f>SUM(C2:C8)</f>
+        <v>64445921</v>
+      </c>
+      <c r="D10" s="9">
+        <f>SUM(D2:D8)</f>
+        <v>68660849</v>
+      </c>
+      <c r="E10" s="8">
+        <f>G10-F10</f>
         <v>5.2777777782466728E-2</v>
       </c>
-      <c r="F7" s="10">
+      <c r="F10" s="11">
         <f>F2</f>
         <v>45836.979166666664</v>
       </c>
-      <c r="G7" s="11">
+      <c r="G10" s="11">
         <v>45837.031944444447</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>